--- a/server/excelfortranslation.xlsx
+++ b/server/excelfortranslation.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86157\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vue projects\regI18n\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F71F2D-FA98-4620-B325-91F6549001C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872F25AA-8860-40E1-A3D7-EE05C4537D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" xr2:uid="{36B59FED-1946-453F-B778-E90099CCA886}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="13670" windowHeight="7850" xr2:uid="{36B59FED-1946-453F-B778-E90099CCA886}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>我的</t>
   </si>
@@ -81,96 +81,395 @@
     <t>他是</t>
   </si>
   <si>
+    <t>c工作爱好</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>爱好列</t>
+  </si>
+  <si>
     <t>mine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mine123</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>things</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>studentabcde</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>learn-chef</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sales</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>finance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>yours</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ongoing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapse1</t>
+  </si>
+  <si>
+    <t>fold</t>
+  </si>
+  <si>
+    <t>collapse2222</t>
   </si>
   <si>
     <t>collapse</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>collapse1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>collapse2222</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>youareauto</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Imauto</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>heis</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c工作爱好</t>
   </si>
   <si>
     <t>cjobHobby</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作</t>
-  </si>
-  <si>
-    <t>爱好列</t>
   </si>
   <si>
     <t>job</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>hobbyColumn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择</t>
+  </si>
+  <si>
+    <t>ABCDE123</t>
+  </si>
+  <si>
+    <t>切换语言</t>
+  </si>
+  <si>
+    <t>ABCDE124</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>ABCDE125</t>
+  </si>
+  <si>
+    <t>返回来自test内部子组件的</t>
+  </si>
+  <si>
+    <t>ABCDE126</t>
+  </si>
+  <si>
+    <t>合并单元格1</t>
+  </si>
+  <si>
+    <t>ABCDE127</t>
+  </si>
+  <si>
+    <t>合并单元格2</t>
+  </si>
+  <si>
+    <t>ABCDE128</t>
+  </si>
+  <si>
+    <t>合并单元格3</t>
+  </si>
+  <si>
+    <t>ABCDE129</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>ABCDE130</t>
+  </si>
+  <si>
+    <t>兴趣</t>
+  </si>
+  <si>
+    <t>ABCDE131</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>ABCDE132</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>ABCDE133</t>
+  </si>
+  <si>
+    <t>地址1</t>
+  </si>
+  <si>
+    <t>ABCDE134</t>
+  </si>
+  <si>
+    <t>地址2</t>
+  </si>
+  <si>
+    <t>ABCDE135</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>ABCDE136</t>
+  </si>
+  <si>
+    <t>年纪</t>
+  </si>
+  <si>
+    <t>ABCDE137</t>
+  </si>
+  <si>
+    <t>王小虎</t>
+  </si>
+  <si>
+    <t>ABCDE138</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>ABCDE139</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>ABCDE140</t>
+  </si>
+  <si>
+    <t>合并单元格1-1</t>
+  </si>
+  <si>
+    <t>ABCDE141</t>
+  </si>
+  <si>
+    <t>合并单元格2-1</t>
+  </si>
+  <si>
+    <t>ABCDE142</t>
+  </si>
+  <si>
+    <t>合并单元格3-1</t>
+  </si>
+  <si>
+    <t>ABCDE143</t>
+  </si>
+  <si>
+    <t>上海市普陀区金沙江路 1518 弄</t>
+  </si>
+  <si>
+    <t>ABCDE144</t>
+  </si>
+  <si>
+    <t>上海市普陀区金沙江路 1519 弄</t>
+  </si>
+  <si>
+    <t>ABCDE145</t>
+  </si>
+  <si>
+    <t>合并单元格3-2</t>
+  </si>
+  <si>
+    <t>ABCDE146</t>
+  </si>
+  <si>
+    <t>合并单元格1-2</t>
+  </si>
+  <si>
+    <t>ABCDE147</t>
+  </si>
+  <si>
+    <t>合并单元格2-2</t>
+  </si>
+  <si>
+    <t>ABCDE148</t>
+  </si>
+  <si>
+    <t>合并单元格2-3</t>
+  </si>
+  <si>
+    <t>ABCDE149</t>
+  </si>
+  <si>
+    <t>合并单元格1-3</t>
+  </si>
+  <si>
+    <t>ABCDE150</t>
+  </si>
+  <si>
+    <t>合并单元格2-4</t>
+  </si>
+  <si>
+    <t>ABCDE151</t>
+  </si>
+  <si>
+    <t>合并单元格3-3</t>
+  </si>
+  <si>
+    <t>ABCDE152</t>
+  </si>
+  <si>
+    <t>上海市普陀区金沙江路 1517 弄</t>
+  </si>
+  <si>
+    <t>ABCDE153</t>
+  </si>
+  <si>
+    <t>王小虎2</t>
+  </si>
+  <si>
+    <t>ABCDE154</t>
+  </si>
+  <si>
+    <t>合并单元格2-5</t>
+  </si>
+  <si>
+    <t>ABCDE155</t>
+  </si>
+  <si>
+    <t>上海市普陀区金沙江路 1516 弄</t>
+  </si>
+  <si>
+    <t>ABCDE156</t>
+  </si>
+  <si>
+    <t>合并单元格1-4</t>
+  </si>
+  <si>
+    <t>ABCDE157</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>ABCDE158</t>
+  </si>
+  <si>
+    <t>这是一段内容这是一段内容确定删除吗</t>
+  </si>
+  <si>
+    <t>ABCDE159</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>ABCDE160</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>ABCDE161</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>ABCDE162</t>
+  </si>
+  <si>
+    <t>黄色</t>
+  </si>
+  <si>
+    <t>ABCDE163</t>
+  </si>
+  <si>
+    <t>十八</t>
+  </si>
+  <si>
+    <t>ABCDE164</t>
+  </si>
+  <si>
+    <t>姓李</t>
+  </si>
+  <si>
+    <t>ABCDE165</t>
+  </si>
+  <si>
+    <t>黄金糕</t>
+  </si>
+  <si>
+    <t>ABCDE166</t>
+  </si>
+  <si>
+    <t>双皮奶</t>
+  </si>
+  <si>
+    <t>ABCDE167</t>
+  </si>
+  <si>
+    <t>蚵仔煎</t>
+  </si>
+  <si>
+    <t>ABCDE168</t>
+  </si>
+  <si>
+    <t>龙须面</t>
+  </si>
+  <si>
+    <t>ABCDE169</t>
+  </si>
+  <si>
+    <t>北京烤鸭</t>
+  </si>
+  <si>
+    <t>ABCDE170</t>
+  </si>
+  <si>
+    <t>选项1</t>
+  </si>
+  <si>
+    <t>ABCDE171</t>
+  </si>
+  <si>
+    <t>选项2</t>
+  </si>
+  <si>
+    <t>ABCDE172</t>
+  </si>
+  <si>
+    <t>选项3</t>
+  </si>
+  <si>
+    <t>ABCDE173</t>
+  </si>
+  <si>
+    <t>选项4</t>
+  </si>
+  <si>
+    <t>ABCDE174</t>
+  </si>
+  <si>
+    <t>选项5</t>
+  </si>
+  <si>
+    <t>ABCDE175</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,21 +477,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8.4"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8.4"/>
-      <color rgb="FF658ABA"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -224,16 +508,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,168 +827,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E36738-1BF4-4DE3-91B7-EA393524A829}">
-  <dimension ref="A1:B19"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.6640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/server/excelfortranslation.xlsx
+++ b/server/excelfortranslation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vue projects\regI18n\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872F25AA-8860-40E1-A3D7-EE05C4537D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA7AD30-878A-4C24-9354-541EB3C4BE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="13670" windowHeight="7850" xr2:uid="{36B59FED-1946-453F-B778-E90099CCA886}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="16548" windowHeight="9420" xr2:uid="{36B59FED-1946-453F-B778-E90099CCA886}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>我的</t>
   </si>
@@ -463,6 +463,32 @@
   </si>
   <si>
     <t>ABCDE175</t>
+  </si>
+  <si>
+    <t>黄色l</t>
+  </si>
+  <si>
+    <t>十八a</t>
+  </si>
+  <si>
+    <t>ABCDE176</t>
+  </si>
+  <si>
+    <t>ABCDE177</t>
+  </si>
+  <si>
+    <t>ABCDE178</t>
+  </si>
+  <si>
+    <t>ABCDE179</t>
+  </si>
+  <si>
+    <t>十八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -828,18 +854,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E36738-1BF4-4DE3-91B7-EA393524A829}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -855,7 +881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -863,7 +889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -871,7 +897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -879,7 +905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,7 +913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -903,7 +929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,7 +937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,7 +945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -927,7 +953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -935,7 +961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -943,7 +969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -951,7 +977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -959,7 +985,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -967,7 +993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -975,7 +1001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -983,7 +1009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -991,7 +1017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -999,7 +1025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1007,7 +1033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1015,7 +1041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1023,7 +1049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1031,7 +1057,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1039,7 +1065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1047,7 +1073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1055,7 +1081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1063,7 +1089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1071,7 +1097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1079,7 +1105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1087,7 +1113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1095,7 +1121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1103,7 +1129,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1111,7 +1137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1119,7 +1145,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1127,7 +1153,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1135,7 +1161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -1143,7 +1169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1151,7 +1177,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -1159,7 +1185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -1167,7 +1193,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1175,7 +1201,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1183,7 +1209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1191,7 +1217,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1199,7 +1225,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1207,7 +1233,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -1215,7 +1241,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -1223,7 +1249,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -1231,7 +1257,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -1239,7 +1265,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -1247,7 +1273,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -1255,7 +1281,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -1263,7 +1289,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -1271,7 +1297,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -1279,7 +1305,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -1287,7 +1313,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -1295,7 +1321,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -1303,7 +1329,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -1311,7 +1337,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -1319,7 +1345,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -1327,7 +1353,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -1335,7 +1361,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -1343,7 +1369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -1351,7 +1377,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -1359,7 +1385,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -1367,7 +1393,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -1375,7 +1401,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -1383,7 +1409,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -1391,7 +1417,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -1399,7 +1425,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -1407,12 +1433,44 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
